--- a/dashboard_loader/health_gpwait_uploader/health_gpwait.xlsx
+++ b/dashboard_loader/health_gpwait_uploader/health_gpwait.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t xml:space="preserve">Waiting times for general practitioners</t>
   </si>
@@ -122,7 +122,16 @@
     <t xml:space="preserve">Data for the Northern Territory should be interpreted with caution as the Patient Experience Survey excluded discrete Aboriginal and Torres Strait Islander communities, which comprise around 25 per cent of the estimated resident population of the NT.</t>
   </si>
   <si>
-    <t xml:space="preserve">Sourced from ABS Patient Experience Survey</t>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABS (unpublished), Patient Experience Survey, various years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">References</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steering Committee for the Review of Government Service Provision (SCRGSP) 2015, Report on Government Services 2015, Productivity Commission, Canberra.</t>
   </si>
 </sst>
 </file>
@@ -134,11 +143,12 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="########\ ###\ ##0.0;\-########\ ###\ ##0.0;\–"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -154,6 +164,87 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -168,27 +259,78 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -206,7 +348,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -230,58 +372,186 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="2" xfId="36" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="36" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -292,15 +562,15 @@
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B8:B14 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.3571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.36"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -789,17 +1059,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="82.6683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="82.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -858,22 +1128,32 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="49.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B9" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/dashboard_loader/health_gpwait_uploader/health_gpwait.xlsx
+++ b/dashboard_loader/health_gpwait_uploader/health_gpwait.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t xml:space="preserve">Waiting times for general practitioners</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t xml:space="preserve">GP availability is influenced by factors such as the number of training places and policies around the recruitment of doctors from overseas. Governments also seek to influence the availability of GPs through incentives to recruit and retain GPs according to geographical need, including remoteness (SCRGSP, 2015). GPs are also unevenly distributed geographically, tending to practice in areas of greater amenity. This inhibits access to primary care for rural and remote populations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funding for GPs is primarily a Commonwealth Government responsibility.</t>
   </si>
   <si>
     <t xml:space="preserve">Notes</t>
@@ -563,13 +566,13 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B8:B14 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.37"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -1059,10 +1062,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8:B14"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1120,34 +1123,40 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="8" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="49.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+    <row r="9" customFormat="false" ht="49.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1"/>
+      <c r="B9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="6" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="B10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="9" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>36</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
